--- a/data/users-export-2025-08-21.xlsx
+++ b/data/users-export-2025-08-21.xlsx
@@ -1,143 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet sheetId="1" name="Users" state="visible" r:id="rId4"/>
+    <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>avatar_url</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>preferences</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>designation</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>is_email_verified</t>
-  </si>
-  <si>
-    <t>last_sign_in_at</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>total_count</t>
-  </si>
-  <si>
-    <t>00425abc-ae20-4c08-bb6c-d325fc77ca9e</t>
-  </si>
-  <si>
-    <t>rajaul2003@gmail.com</t>
-  </si>
-  <si>
-    <t>md rajaul</t>
-  </si>
-  <si>
-    <t>rajaul</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/a/ACg8ocK7VSlyATI4J8ARUKECf72-ohoHwbtT4gZxR33aGJvcSgDO2BOs=s96-c</t>
-  </si>
-  <si>
-    <t>{"city":"","state":"","street":"","zip_code":""}</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>2025-08-20T07:06:47.25412+00:00</t>
-  </si>
-  <si>
-    <t>2025-08-20T07:06:46.274845+00:00</t>
-  </si>
-  <si>
-    <t>2025-08-20T07:07:20.538139+00:00</t>
-  </si>
-  <si>
-    <t>b77c0897-0d31-403a-aef1-ed8262f62a4d</t>
-  </si>
-  <si>
-    <t>sdetmharinavi@gmail.com</t>
-  </si>
-  <si>
-    <t>SDE TM HARINAVI</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/a/ACg8ocKS9N_Q-45063flQUG4lkvP69psyhMTORK-3vnBYd86oS7eZA=s96-c</t>
-  </si>
-  <si>
-    <t>2025-08-19T02:43:23.948824+00:00</t>
-  </si>
-  <si>
-    <t>2025-08-18T16:11:35.704501+00:00</t>
-  </si>
-  <si>
-    <t>2025-08-18T16:22:47.225422+00:00</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -500,173 +396,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-  </cols>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>email</v>
+      </c>
+      <c r="C1" t="str">
+        <v>First Name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Last Name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Avatar Url</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Phone Number</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Date Of Birth</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Address</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Preferences</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Role</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Designation</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Status</v>
+      </c>
+      <c r="M1" t="str">
+        <v>is_email_verified</v>
+      </c>
+      <c r="N1" t="str">
+        <v>last_sign_in_at</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Created At</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Updated At</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>total_count</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>00425abc-ae20-4c08-bb6c-d325fc77ca9e</v>
+      </c>
+      <c r="B2" t="str">
+        <v>rajaul2003@gmail.com</v>
+      </c>
+      <c r="C2" t="str">
+        <v>md rajaul</v>
+      </c>
+      <c r="D2" t="str">
+        <v>rajaul</v>
+      </c>
+      <c r="E2" t="str">
+        <v>https://lh3.googleusercontent.com/a/ACg8ocK7VSlyATI4J8ARUKECf72-ohoHwbtT4gZxR33aGJvcSgDO2BOs=s96-c</v>
+      </c>
+      <c r="H2" t="str">
+        <v>{"city":"","state":"","street":"","zip_code":""}</v>
+      </c>
+      <c r="I2" t="str">
+        <v>{}</v>
+      </c>
+      <c r="J2" t="str">
+        <v>admin</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v>active</v>
+      </c>
+      <c r="M2" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="N2" t="str">
+        <v>2025-08-20T07:06:47.25412+00:00</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2025-08-20T07:06:46.274845+00:00</v>
+      </c>
+      <c r="P2" t="str">
+        <v>2025-08-20T07:07:20.538139+00:00</v>
+      </c>
+      <c r="Q2" t="str">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3">
+    <row r="3">
+      <c r="A3" t="str">
+        <v>b77c0897-0d31-403a-aef1-ed8262f62a4d</v>
+      </c>
+      <c r="B3" t="str">
+        <v>sdetmharinavi@gmail.com</v>
+      </c>
+      <c r="C3" t="str">
+        <v>SDE TM HARINAVI</v>
+      </c>
+      <c r="D3" t="str">
+        <v>TM</v>
+      </c>
+      <c r="E3" t="str">
+        <v>https://lh3.googleusercontent.com/a/ACg8ocKS9N_Q-45063flQUG4lkvP69psyhMTORK-3vnBYd86oS7eZA=s96-c</v>
+      </c>
+      <c r="H3" t="str">
+        <v>{}</v>
+      </c>
+      <c r="I3" t="str">
+        <v>{}</v>
+      </c>
+      <c r="J3" t="str">
+        <v>admin</v>
+      </c>
+      <c r="L3" t="str">
+        <v>active</v>
+      </c>
+      <c r="M3" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="N3" t="str">
+        <v>2025-08-19T02:43:23.948824+00:00</v>
+      </c>
+      <c r="O3" t="str">
+        <v>2025-08-18T16:11:35.704501+00:00</v>
+      </c>
+      <c r="P3" t="str">
+        <v>2025-08-18T16:22:47.225422+00:00</v>
+      </c>
+      <c r="Q3" t="str">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q3"/>
+  </ignoredErrors>
 </worksheet>
 </file>